--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/ValueSet-jp-procedure-device-action-vs.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/ValueSet-jp-procedure-device-action-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>JP_ProcedureDeviceActionCodes_VS</t>
+    <t>JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Device Action Codes</t>
+    <t>JP Core Procedure Device Action ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-27T00:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureDeviceActionCodes_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureDeviceAction_CS</t>
   </si>
 </sst>
 </file>
